--- a/public/assets/report/report-kunjungan.xlsx
+++ b/public/assets/report/report-kunjungan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\sistem-pelaporan-terpadu-puskesmas\public\assets\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6D6E9E-F7EC-4BC5-AD86-FBACEA9193E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3464270-BE29-4430-A82F-CE9485254909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -249,77 +249,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="21"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="18"/>
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -778,43 +775,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -823,13 +820,13 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -838,13 +835,13 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -853,13 +850,13 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -868,223 +865,182 @@
       <c r="K6" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="31" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="23" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="4"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="4"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="4"/>
+      <c r="A21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="C22" s="18" t="s">
+      <c r="A22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="4"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -1092,10 +1048,6 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -1103,10 +1055,6 @@
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
@@ -1114,10 +1062,6 @@
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1125,10 +1069,6 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -2275,18 +2215,22 @@
       <c r="I132" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:E10"/>
+  <mergeCells count="15">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
